--- a/_docs/db定義.xlsx
+++ b/_docs/db定義.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusuke/Documents/experiment-web/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusuke/Documents/inolabo/projects/experiment-web/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EB139E-0A2F-854F-A5BD-EF7F965262B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E78C23-13B7-904A-90F2-0F473972CB73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{D42339D4-3F5E-E040-85F9-F09BD57040B5}"/>
+    <workbookView xWindow="21020" yWindow="-19860" windowWidth="33600" windowHeight="19200" xr2:uid="{D42339D4-3F5E-E040-85F9-F09BD57040B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -259,6 +259,30 @@
   </si>
   <si>
     <t>L1,L2,L3,L4,L5,L6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reasons</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"流暢さ", "正確さ", "テキスト", "伝わり具合", "豊かさ", "対人配慮"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reason_first</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reason_second</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"流暢さ"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"正確さ"</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -291,7 +315,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -385,13 +409,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -416,9 +545,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -435,6 +561,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -751,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B95B80-FBBA-B940-9987-7BD774F852D4}">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -769,15 +925,16 @@
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" customWidth="1"/>
+    <col min="12" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -785,25 +942,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -821,7 +978,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:22">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -829,62 +986,62 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="R6" s="13"/>
-    </row>
-    <row r="7" spans="1:19">
+    <row r="6" spans="1:22">
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
         <v>48</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:22">
+      <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="O8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="P8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="Q8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="R8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="14" t="s">
+      <c r="S8" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -909,23 +1066,23 @@
       <c r="J9" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="6">
+      <c r="O9" s="3">
         <v>1</v>
       </c>
       <c r="P9" s="6">
         <v>1</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="6">
+        <v>1</v>
+      </c>
+      <c r="R9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <v>9096605286</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -939,7 +1096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:22">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -953,76 +1110,85 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="G14" t="s">
         <v>23</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:22">
+      <c r="A15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="11" t="s">
         <v>19</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="M15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="P15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="12" t="s">
+      <c r="Q15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R15" s="12" t="s">
+      <c r="S15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S15" s="14" t="s">
+      <c r="T15" s="17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="U15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="V15" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1050,29 +1216,38 @@
       <c r="K16" s="5">
         <v>30</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="1">
-        <v>1</v>
-      </c>
-      <c r="O16" s="5">
-        <v>1</v>
-      </c>
-      <c r="P16" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="5">
+      <c r="M16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="12">
         <v>1</v>
       </c>
       <c r="R16" s="5">
+        <v>1</v>
+      </c>
+      <c r="S16" s="5">
         <v>5</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="T16" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="U16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="V16" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="G17" s="1">
         <v>2</v>
       </c>
@@ -1088,29 +1263,38 @@
       <c r="K17" s="5">
         <v>31</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="1">
+      <c r="M17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" s="1">
         <v>2</v>
       </c>
-      <c r="O17" s="5">
-        <v>1</v>
-      </c>
-      <c r="P17" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="5">
+      <c r="P17" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>1</v>
+      </c>
+      <c r="R17" s="5">
         <v>2</v>
       </c>
-      <c r="R17" s="5">
+      <c r="S17" s="5">
         <v>4</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="T17" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="U17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="V17" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="G18" s="3">
         <v>3</v>
       </c>
@@ -1126,40 +1310,49 @@
       <c r="K18" s="6">
         <v>32</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="N18" s="3">
+      <c r="M18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="O18" s="3">
         <v>3</v>
       </c>
-      <c r="O18" s="6">
-        <v>1</v>
-      </c>
       <c r="P18" s="6">
         <v>1</v>
       </c>
       <c r="Q18" s="6">
+        <v>1</v>
+      </c>
+      <c r="R18" s="6">
         <v>3</v>
       </c>
-      <c r="R18" s="6">
+      <c r="S18" s="6">
         <v>6</v>
       </c>
-      <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18" s="6"/>
+      <c r="U18" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="V18" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:22">
+      <c r="A20" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -1169,37 +1362,37 @@
       <c r="G21" t="s">
         <v>34</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="N22" s="10" t="s">
+      <c r="O22" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="12" t="s">
+      <c r="P22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="Q22" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -1215,17 +1408,17 @@
       <c r="I23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N23" s="3">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6">
-        <v>1</v>
-      </c>
-      <c r="P23" s="7" t="s">
+      <c r="O23" s="3">
+        <v>1</v>
+      </c>
+      <c r="P23" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:22">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -1234,12 +1427,13 @@
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -1250,7 +1444,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:22">
       <c r="A26" s="1">
         <v>6</v>
       </c>
@@ -1258,7 +1452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:22">
       <c r="A27" s="3">
         <v>7</v>
       </c>
@@ -1266,9 +1460,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:22">
       <c r="K32" s="5"/>
-      <c r="L32" s="13"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
     </row>
     <row r="36" spans="7:11">
       <c r="G36" s="5"/>
@@ -1286,7 +1481,7 @@
       <c r="K39" s="5"/>
     </row>
     <row r="40" spans="7:11">
-      <c r="K40" s="13"/>
+      <c r="K40" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
